--- a/imageCreationExcel/back/113/113_10.xlsx
+++ b/imageCreationExcel/back/113/113_10.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15.97389351741188</v>
+        <v>10.50778612639148</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,22 +503,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8500341900200875</v>
+        <v>0.8110278166161385</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.5608381264662083</v>
+        <v>0.3418002043503175</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_C_brightness15.974_contrast0.85_gamma0.561.jpg</t>
+          <t>1_P_brightness10.508_contrast0.811_sharpness0.342.jpg</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.885303760844481</v>
+        <v>1.142379148132602</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.3817444230714437</v>
+        <v>0.04791704208032952</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>13.62569799213587</v>
+        <v>18.63435103157859</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_I_contrast0.885_sharpness0.382_equalization13.626.jpg</t>
+          <t>2_B_contrast1.142_sharpness0.048_equalization18.634.jpg</t>
         </is>
       </c>
     </row>
@@ -570,16 +570,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>26.51426510690185</v>
+        <v>0.8593734751175823</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.6134295086389393</v>
+        <v>0.9338215639809411</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.0620968232085064</v>
+        <v>0.7717108106563271</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_0_brightness26.514_gamma0.613_sharpness0.062.jpg</t>
+          <t>3_2_contrast0.859_gamma0.934_sharpness0.772.jpg</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -621,30 +621,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>14.65089648388008</v>
+        <v>13.39592900030701</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.584776463927688</v>
+        <v>1.182292762093187</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.3502892701825266</v>
+        <v>0.8578376226270721</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_S_brightness14.651_gamma0.585_sharpness0.35.jpg</t>
+          <t>4_2_brightness13.396_contrast1.182_gamma0.858.jpg</t>
         </is>
       </c>
     </row>
@@ -654,16 +654,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.08643616056316</v>
+        <v>3.269654248080204</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.7676214853598743</v>
+        <v>0.5454060417149673</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.8588341029904578</v>
+        <v>0.9119036342572986</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_2_contrast1.086_gamma0.768_sharpness0.859.jpg</t>
+          <t>5_S_brightness3.27_gamma0.545_sharpness0.912.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.070946999053527</v>
+        <v>0.5625705357388027</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.895140948514059</v>
+        <v>0.4382059816880673</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1.047532623835456</v>
+        <v>4.996296105295152</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_P_brightness4.071_contrast0.895_gamma1.048.jpg</t>
+          <t>6_8_gamma0.563_sharpness0.438_equalization4.996.jpg</t>
         </is>
       </c>
     </row>
@@ -738,39 +738,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>12.06667451966282</v>
+        <v>1.08070216705698</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8721503765850922</v>
+        <v>0.8822602468660321</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.5467034370222238</v>
+        <v>20.11137596394764</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_T_brightness12.067_contrast0.872_gamma0.547.jpg</t>
+          <t>7_8_contrast1.081_sharpness0.882_equalization20.111.jpg</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -789,15 +789,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9864664202816981</v>
+        <v>1.188148025282634</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.07144014128079347</v>
+        <v>0.6028572512036812</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -805,14 +805,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>30.7864898003151</v>
+        <v>13.42508391099187</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_0_contrast0.986_sharpness0.071_equalization30.786.jpg</t>
+          <t>8_9_contrast1.188_gamma0.603_equalization13.425.jpg</t>
         </is>
       </c>
     </row>
@@ -827,34 +827,34 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.027546503484393</v>
+        <v>6.404383921670012</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.4823588551560578</v>
+        <v>1.118886311740908</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>22.27779047861014</v>
+        <v>0.9661199590609812</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_E_gamma1.028_sharpness0.482_equalization22.278.jpg</t>
+          <t>9_E_brightness6.404_contrast1.119_gamma0.966.jpg</t>
         </is>
       </c>
     </row>
@@ -864,24 +864,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.839188507988075</v>
+        <v>0.9751039215150689</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9069004686674349</v>
+        <v>0.5813663972120895</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -889,14 +889,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.6042562993468179</v>
+        <v>0.2047274143788915</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_S_brightness3.839_contrast0.907_sharpness0.604.jpg</t>
+          <t>10_8_contrast0.975_gamma0.581_sharpness0.205.jpg</t>
         </is>
       </c>
     </row>
@@ -911,11 +911,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.076160334794225</v>
+        <v>0.8147229177807918</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9409871638535976</v>
+        <v>0.9262835500869118</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10.9776263392759</v>
+        <v>11.67684352127977</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_2_contrast1.076_sharpness0.941_equalization10.978.jpg</t>
+          <t>11_2_gamma0.815_sharpness0.926_equalization11.677.jpg</t>
         </is>
       </c>
     </row>
@@ -948,39 +948,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9763535703945437</v>
+        <v>1.044349990501619</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.6314769746866873</v>
+        <v>0.757635046921338</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>23.79534337039813</v>
+        <v>0.6613123936769623</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_3_gamma0.976_sharpness0.631_equalization23.795.jpg</t>
+          <t>12_P_contrast1.044_gamma0.758_sharpness0.661.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>27.34674839555474</v>
+        <v>0.9188256754106883</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.0543924438521</v>
+        <v>0.6024898444596303</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.494207302513382</v>
+        <v>29.43836819699357</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_B_brightness27.347_contrast1.054_sharpness0.494.jpg</t>
+          <t>13_P_contrast0.919_sharpness0.602_equalization29.438.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,39 +1032,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.9088394688665546</v>
+        <v>1.040633596255295</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.058275817166247</v>
+        <v>1.072827548035054</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.6884149109147499</v>
+        <v>25.13506159028966</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_B_brightness0.909_contrast1.058_gamma0.688.jpg</t>
+          <t>14_E_contrast1.041_gamma1.073_equalization25.135.jpg</t>
         </is>
       </c>
     </row>
@@ -1079,34 +1079,34 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>3.829607041966375</v>
+        <v>0.8009063203592747</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9820388176075969</v>
+        <v>0.206045109730751</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.6150534326021845</v>
+        <v>5.774102251929898</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_0_brightness3.83_contrast0.982_gamma0.615.jpg</t>
+          <t>15_0_contrast0.801_sharpness0.206_equalization5.774.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>11.68524666911006</v>
+        <v>0.8123633222639399</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9080264423168879</v>
+        <v>0.5714891889471566</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.5143702847796814</v>
+        <v>0.3424930524123835</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_8_brightness11.685_contrast0.908_gamma0.514.jpg</t>
+          <t>16_I_contrast0.812_gamma0.571_sharpness0.342.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.107483633666893</v>
+        <v>9.565000789896567</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.600521033000749</v>
+        <v>0.8746668508921766</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>15.18226283077346</v>
+        <v>0.8433422033156419</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_2_contrast1.107_gamma0.601_equalization15.182.jpg</t>
+          <t>17_7_brightness9.565_contrast0.875_gamma0.843.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.049396640661378</v>
+        <v>0.814911600340243</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.91081300978929</v>
+        <v>0.9745942149407469</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1225,14 +1225,14 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.5776835246322173</v>
+        <v>0.9337173063536838</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_I_contrast1.049_gamma0.911_sharpness0.578.jpg</t>
+          <t>18_7_contrast0.815_gamma0.975_sharpness0.934.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.163962728232566</v>
+        <v>20.20590883977042</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.543926801451</v>
+        <v>1.065497080548202</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>17.00361219794856</v>
+        <v>0.7685430285385526</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_T_contrast1.164_gamma0.544_equalization17.004.jpg</t>
+          <t>19_I_brightness20.206_contrast1.065_sharpness0.769.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,16 +1284,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.028548387658243</v>
+        <v>3.852280328701712</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.914595946802514</v>
+        <v>0.8632096412065338</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>28.51104603003215</v>
+        <v>0.8192036572463403</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_7_contrast1.029_gamma0.915_equalization28.511.jpg</t>
+          <t>20_S_brightness3.852_gamma0.863_sharpness0.819.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,39 +1326,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>20.49952894418182</v>
+        <v>1.121727482485114</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.143946316455092</v>
+        <v>0.8859541756224171</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.9035384484435148</v>
+        <v>19.34942536120596</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_3_brightness20.5_contrast1.144_sharpness0.904.jpg</t>
+          <t>21_8_contrast1.122_gamma0.886_equalization19.349.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.102844629393831</v>
+        <v>28.34261132317937</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.7307483878878067</v>
+        <v>0.7380531619358585</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>16.54517187399265</v>
+        <v>0.1013002113277716</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_8_contrast1.103_sharpness0.731_equalization16.545.jpg</t>
+          <t>22_2_brightness28.343_gamma0.738_sharpness0.101.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,7 +1419,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9296815264970878</v>
+        <v>1.017489776753099</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1427,22 +1427,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9410365671834191</v>
+        <v>0.7672275580387621</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.624053995304183</v>
+        <v>14.05008510419431</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_3_contrast0.93_gamma0.941_sharpness0.624.jpg</t>
+          <t>23_B_contrast1.017_gamma0.767_equalization14.05.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,39 +1452,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>12.71723132835047</v>
+        <v>0.9193353534986234</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.8794731905205667</v>
+        <v>0.07317262115916252</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.5603599209972738</v>
+        <v>24.04550713583069</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_7_brightness12.717_contrast0.879_gamma0.56.jpg</t>
+          <t>24_B_contrast0.919_sharpness0.073_equalization24.046.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,39 +1494,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8368725441103653</v>
+        <v>7.838142739960623</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.6614598809829129</v>
+        <v>1.019804354942017</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>15.1351836125505</v>
+        <v>0.9871133994257787</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_C_contrast0.837_sharpness0.661_equalization15.135.jpg</t>
+          <t>25_P_brightness7.838_gamma1.02_sharpness0.987.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,39 +1536,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4.641342634367115</v>
+        <v>1.020985278987664</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.127075079279371</v>
+        <v>0.7902898950297903</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.7437552238166183</v>
+        <v>6.370279244858817</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_9_brightness4.641_contrast1.127_sharpness0.744.jpg</t>
+          <t>26_C_contrast1.021_gamma0.79_equalization6.37.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,39 +1578,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.028537942470427</v>
+        <v>0.8325187139653166</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.9110727267458227</v>
+        <v>0.8529408938713073</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.9476074518307552</v>
+        <v>14.58380997780303</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_C_brightness1.029_contrast0.911_gamma0.948.jpg</t>
+          <t>27_2_contrast0.833_sharpness0.853_equalization14.584.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>24.36115365616338</v>
+        <v>1.099812915559506</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.72499042003076</v>
+        <v>0.4338497869350271</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.5544502037810373</v>
+        <v>24.43030886521723</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_1_brightness24.361_gamma0.725_sharpness0.554.jpg</t>
+          <t>28_0_contrast1.1_sharpness0.434_equalization24.43.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9492248035940222</v>
+        <v>0.9900886397857039</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.009493839734237</v>
+        <v>0.5255684735608712</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.7450530165007311</v>
+        <v>0.8761576804049618</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_C_contrast0.949_gamma1.009_sharpness0.745.jpg</t>
+          <t>29_7_contrast0.99_gamma0.526_sharpness0.876.jpg</t>
         </is>
       </c>
     </row>
@@ -1709,34 +1709,34 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>22.07480595820589</v>
+        <v>1.013309038401701</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.8122781416699099</v>
+        <v>0.4862321983565996</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.1193178814237536</v>
+        <v>31.1796076105333</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_9_brightness22.075_gamma0.812_sharpness0.119.jpg</t>
+          <t>30_9_gamma1.013_sharpness0.486_equalization31.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.8957238141886879</v>
+        <v>0.957597920155478</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.4919415679112866</v>
+        <v>0.08446582588728929</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>20.97341363315396</v>
+        <v>25.68759354453973</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_B_contrast0.896_sharpness0.492_equalization20.973.jpg</t>
+          <t>31_S_contrast0.958_sharpness0.084_equalization25.688.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,24 +1788,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>15.16850969007586</v>
+        <v>0.9767949507802776</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.099515024622782</v>
+        <v>0.614465583258058</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1813,14 +1813,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.38188551092198</v>
+        <v>0.01082442877502552</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_P_brightness15.169_contrast1.1_sharpness0.382.jpg</t>
+          <t>32_2_contrast0.977_gamma0.614_sharpness0.011.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,16 +1830,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.053119670405472</v>
+        <v>1.18250691664552</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.5695487377105801</v>
+        <v>0.8031649441992428</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1855,14 +1855,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>25.6262677656573</v>
+        <v>14.08019055342975</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_8_gamma1.053_sharpness0.57_equalization25.626.jpg</t>
+          <t>33_S_contrast1.183_sharpness0.803_equalization14.08.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.021259537390746</v>
+        <v>1.088818202618689</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9381746470533194</v>
+        <v>1.02573229729647</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1897,14 +1897,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.6544849675706336</v>
+        <v>0.3751345087123331</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_E_contrast1.021_gamma0.938_sharpness0.654.jpg</t>
+          <t>34_I_contrast1.089_gamma1.026_sharpness0.375.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1923,30 +1923,30 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>27.00776929208109</v>
+        <v>14.27752099165968</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.058242279984139</v>
+        <v>0.836836793023778</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.9708414079415274</v>
+        <v>0.4705890917921167</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_T_brightness27.008_contrast1.058_gamma0.971.jpg</t>
+          <t>35_0_brightness14.278_gamma0.837_sharpness0.471.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,39 +1956,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5.465734415149263</v>
+        <v>1.159831265034925</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.8536967721727771</v>
+        <v>0.8547773085526453</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1.089425748690172</v>
+        <v>14.10857475044481</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_I_brightness5.466_contrast0.854_gamma1.089.jpg</t>
+          <t>36_1_contrast1.16_gamma0.855_equalization14.109.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,39 +1998,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>7.573339295803619</v>
+        <v>0.8468480794657075</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.073922198993461</v>
+        <v>0.5221507106316502</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1.025792894768454</v>
+        <v>26.26444255384763</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_2_brightness7.573_contrast1.074_gamma1.026.jpg</t>
+          <t>37_3_contrast0.847_gamma0.522_equalization26.264.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,16 +2040,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.9391458876034431</v>
+        <v>1.078871788086837</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.07223361380412519</v>
+        <v>0.7517453635289904</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>29.64906451170292</v>
+        <v>29.19107977444505</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_T_contrast0.939_sharpness0.072_equalization29.649.jpg</t>
+          <t>38_B_gamma1.079_sharpness0.752_equalization29.191.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2091,15 +2091,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1.032016269825713</v>
+        <v>0.9480987765214469</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.7670056565225025</v>
+        <v>0.2021991154305542</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2107,14 +2107,14 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>26.8434092590646</v>
+        <v>18.84768148647034</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_I_contrast1.032_gamma0.767_equalization26.843.jpg</t>
+          <t>39_E_contrast0.948_sharpness0.202_equalization18.848.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,16 +2124,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.9738234622293481</v>
+        <v>4.775226210777887</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.036986439468121</v>
+        <v>0.7248834109840336</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2149,14 +2149,14 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.5577024528756261</v>
+        <v>0.9315056455504733</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_1_contrast0.974_gamma1.037_sharpness0.558.jpg</t>
+          <t>40_C_brightness4.775_gamma0.725_sharpness0.932.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2175,15 +2175,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10.64951211686075</v>
+        <v>20.83345310747919</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.071393957911897</v>
+        <v>0.7618483754097823</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2191,14 +2191,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.4279163942920778</v>
+        <v>0.7618753957019733</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_8_brightness10.65_contrast1.071_sharpness0.428.jpg</t>
+          <t>41_7_brightness20.833_gamma0.762_sharpness0.762.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.5017323720008365</v>
+        <v>0.8642351071983172</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.4818379847502866</v>
+        <v>0.9496684052848764</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>23.86954231330868</v>
+        <v>17.27025272591846</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_3_gamma0.502_sharpness0.482_equalization23.87.jpg</t>
+          <t>42_E_gamma0.864_sharpness0.95_equalization17.27.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,16 +2250,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.8129015444296428</v>
+        <v>0.5169312566467441</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.4579516492384363</v>
+        <v>0.09929730501843892</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>12.63818065998591</v>
+        <v>24.25068886110411</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_1_contrast0.813_sharpness0.458_equalization12.638.jpg</t>
+          <t>43_3_gamma0.517_sharpness0.099_equalization24.251.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,24 +2292,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3.238354340523645</v>
+        <v>0.9301020828405856</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.084713203424691</v>
+        <v>0.5818251018869872</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2317,14 +2317,14 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.7836463665061002</v>
+        <v>0.9563894241512949</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_E_brightness3.238_contrast1.085_sharpness0.784.jpg</t>
+          <t>44_0_contrast0.93_gamma0.582_sharpness0.956.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2343,7 +2343,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.02326300544106</v>
+        <v>1.176415672568848</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2351,22 +2351,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.061926288417329</v>
+        <v>0.5825669076138116</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.7153350676034747</v>
+        <v>28.06802876611965</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_I_contrast1.023_gamma1.062_sharpness0.715.jpg</t>
+          <t>45_3_contrast1.176_gamma0.583_equalization28.068.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.9242155459131778</v>
+        <v>21.60235769585955</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.6130287299743098</v>
+        <v>1.189900753753202</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>21.1953143329758</v>
+        <v>0.803351459521071</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_S_gamma0.924_sharpness0.613_equalization21.195.jpg</t>
+          <t>46_T_brightness21.602_contrast1.19_sharpness0.803.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9538920966183897</v>
+        <v>0.6777372171127867</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.8526513521018355</v>
+        <v>0.6074461062266818</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>24.8877963390358</v>
+        <v>4.285270015674637</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_S_gamma0.954_sharpness0.853_equalization24.888.jpg</t>
+          <t>47_2_gamma0.678_sharpness0.607_equalization4.285.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>18.52083765937837</v>
+        <v>26.98665713968157</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,22 +2477,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.06597395220232</v>
+        <v>1.112390507432405</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.7099652149454404</v>
+        <v>0.03572492466690994</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_2_brightness18.521_contrast1.066_gamma0.71.jpg</t>
+          <t>48_7_brightness26.987_contrast1.112_sharpness0.036.jpg</t>
         </is>
       </c>
     </row>
